--- a/OnBoard/output/trust/catch/Catch_Trust_59.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_59.xlsx
@@ -1843,7 +1843,7 @@
         <v>0.067</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>34.42685245901639</v>
@@ -2089,7 +2089,7 @@
         <v>0.667</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
         <v>34.42685245901639</v>
@@ -2212,7 +2212,7 @@
         <v>0.163</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>34.42685245901639</v>
